--- a/medicine/Enfance/Pierre_Gripari/Pierre_Gripari.xlsx
+++ b/medicine/Enfance/Pierre_Gripari/Pierre_Gripari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Gripari, né le 7 janvier 1925 à Paris 17e et mort le 23 décembre 1990 à Paris 14e[1], est un écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Gripari, né le 7 janvier 1925 à Paris 17e et mort le 23 décembre 1990 à Paris 14e, est un écrivain français.
 </t>
         </is>
       </c>
@@ -511,27 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Gripari naît d'un père ingénieur, franc-maçon[2], originaire de Myconos et d'une mère coiffeuse et médium, originaire de Rouen[3],[4]. Au cours de sa vie, il n'a presque jamais quitté Paris[5].
-Ses parents meurent durant la Seconde Guerre mondiale. Il est d'abord élève au lycée Buffon[6]. Il doit abandonner ses études littéraires au lycée Louis-le-Grand[3] pour exercer divers petits métiers : commis agricole, clerc expéditionnaire chez un notaire et même, à l'occasion, pianiste dans des bals de campagne. De 1946 à 1949, il s'engage comme volontaire dans les troupes aéroportées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Gripari naît d'un père ingénieur, franc-maçon, originaire de Myconos et d'une mère coiffeuse et médium, originaire de Rouen,. Au cours de sa vie, il n'a presque jamais quitté Paris.
+Ses parents meurent durant la Seconde Guerre mondiale. Il est d'abord élève au lycée Buffon. Il doit abandonner ses études littéraires au lycée Louis-le-Grand pour exercer divers petits métiers : commis agricole, clerc expéditionnaire chez un notaire et même, à l'occasion, pianiste dans des bals de campagne. De 1946 à 1949, il s'engage comme volontaire dans les troupes aéroportées.
 De 1950 à 1957, il est employé à la Mobil Oil, où il assume les fonctions de délégué syndical de la CGT. Il arrête de travailler pour écrire. Mais ne parvenant pas à se faire publier, il travaille comme garçon de bibliothèque au CNRS.
-En 1962, il se fait connaître par une pièce de théâtre, Lieutenant Tenant[5], créée à la Gaîté-Montparnasse, puis un récit autobiographique, Pierrot la lune, publié aux éditions de la Table ronde en 1963. Sa carrière d'auteur débute. Mais ses œuvres suivantes ne rencontrent pas le succès. Ayant quitté le CNRS pour vivre de sa plume, il connaît la pauvreté.
+En 1962, il se fait connaître par une pièce de théâtre, Lieutenant Tenant, créée à la Gaîté-Montparnasse, puis un récit autobiographique, Pierrot la lune, publié aux éditions de la Table ronde en 1963. Sa carrière d'auteur débute. Mais ses œuvres suivantes ne rencontrent pas le succès. Ayant quitté le CNRS pour vivre de sa plume, il connaît la pauvreté.
 Refusé successivement par dix-sept éditeurs, il trouve une maison d'édition en 1974 : Vladimir Dimitrijević, patron des éditions L'Âge d'Homme (« un éditeur qui aime lire » disait-il), lui accorde une totale liberté d'auteur en acceptant systématiquement tous ses livres.
-Pierre Gripari a également été critique théâtral pour le journal Écrits de Paris, ainsi que collaborateur du Spectacle du monde et de Défense de l'Occident[7]. Il intervenait fréquemment à la radio, sur deux antennes idéologiquement différentes : Radio Courtoisie, qui rediffuse régulièrement une longue causerie sur Gogol (que Gripari, russophone, lisait dans le texte), et France Culture, dans les émissions de Bertrand Jérôme, avec de très fréquentes apparitions aux « Papous dans la tête ». Dans cette émission, Bertrand Jérôme annonce sa mort le 30 décembre 1990. Le 13 février 1991, il consacre une émission spéciale à Pierre Gripari, réunissant 90 minutes de moments d'humour extraits des archives.
-Mort le 23 décembre 1990 à 65 ans à l'hôpital Saint-Joseph à Paris des suites d'une opération chirurgicale[5], il est incinéré le 4 janvier 1991 au crématorium du Père-Lachaise, et ses cendres sont dispersées au jardin du souvenir du cimetière[8].
-Personnalité
-Il se définissait lui-même comme « un Martien observant le monde des hommes avec une curiosité amusée, étranger au monde terrestre. » Entre rue Broca et rue de la Folie-Méricourt, et quoiqu'il fût aussi épicurien, il menait une vie de bohème quasiment monacale[Quoi ?]. Indifférent à toute ambition matérielle, il s'accommodait de la pauvreté pour ne jamais tomber dans la compromission[réf. nécessaire]. 
-« Il y a des sacrifices, disait-il. Le plaisir de l'écriture vaut tout ça[9]. »
-Pierre Gripari était membre de Mensa.
-Homosexualité
-Gripari se déclare homosexuel[5] et traite aussi de l'homosexualité, qu'il vit sans complexes, sur un ton à la fois ironique et tragique. Sa conception des choses de l'amour constitue la base de son pessimisme.
-Positions politiques
-Communiste de tendance stalinienne de 1950 à 1956, il se rapproche ensuite des milieux d'extrême droite (il sera ainsi membre d'Europe-Action). Néanmoins, son absence ultérieure d'engagement politique ferme manifeste son désintérêt profond de la politique active, bien qu'il participe au comité de parrainage du journal d'extrême droite Militant au cours des années 1980[10]. Il s'intéresse aux religions pour en pointer le folklore, souvent sous forme de pastiche. Il a ensuite participé au Groupement de recherche et d'études pour la civilisation européenne (GRECE) et figuré au comité de patronage de Nouvelle École, la revue éditée par cette association[11].
-Le Dictionnaire des écrivains de langue française (Larousse, 2001) le qualifie d'« écrivain ironique, qui se tient à l'écart » et commente :
-« Quant à ses prises de position “fascistes”, il faut y voir le goût de la provocation chez un homme à qui répugnaient la bonne conscience et les idées reçues, fussent-elles “démocratiques”[12]. »
-En mars 1976, Gripari déclare néanmoins avec le plus parfait sérieux au National, organe nationaliste-révolutionnaire du Front national créé par François Duprat en septembre 1974 :
-« De toute manière, le Fascisme n'a pas eu sa chance, il a été vaincu par une coalition de gens qui n'étaient même pas d'accord entre eux, qui se sont entendus uniquement sur son dos. Cette formule mériterait d'être reprise et honnêtement essayée[13]. »
+Pierre Gripari a également été critique théâtral pour le journal Écrits de Paris, ainsi que collaborateur du Spectacle du monde et de Défense de l'Occident. Il intervenait fréquemment à la radio, sur deux antennes idéologiquement différentes : Radio Courtoisie, qui rediffuse régulièrement une longue causerie sur Gogol (que Gripari, russophone, lisait dans le texte), et France Culture, dans les émissions de Bertrand Jérôme, avec de très fréquentes apparitions aux « Papous dans la tête ». Dans cette émission, Bertrand Jérôme annonce sa mort le 30 décembre 1990. Le 13 février 1991, il consacre une émission spéciale à Pierre Gripari, réunissant 90 minutes de moments d'humour extraits des archives.
+Mort le 23 décembre 1990 à 65 ans à l'hôpital Saint-Joseph à Paris des suites d'une opération chirurgicale, il est incinéré le 4 janvier 1991 au crématorium du Père-Lachaise, et ses cendres sont dispersées au jardin du souvenir du cimetière.
 </t>
         </is>
       </c>
@@ -557,63 +559,290 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Personnalité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Il se définissait lui-même comme « un Martien observant le monde des hommes avec une curiosité amusée, étranger au monde terrestre. » Entre rue Broca et rue de la Folie-Méricourt, et quoiqu'il fût aussi épicurien, il menait une vie de bohème quasiment monacale[Quoi ?]. Indifférent à toute ambition matérielle, il s'accommodait de la pauvreté pour ne jamais tomber dans la compromission[réf. nécessaire]. 
+« Il y a des sacrifices, disait-il. Le plaisir de l'écriture vaut tout ça. »
+Pierre Gripari était membre de Mensa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Gripari</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gripari</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Homosexualité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gripari se déclare homosexuel et traite aussi de l'homosexualité, qu'il vit sans complexes, sur un ton à la fois ironique et tragique. Sa conception des choses de l'amour constitue la base de son pessimisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Gripari</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gripari</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Positions politiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Communiste de tendance stalinienne de 1950 à 1956, il se rapproche ensuite des milieux d'extrême droite (il sera ainsi membre d'Europe-Action). Néanmoins, son absence ultérieure d'engagement politique ferme manifeste son désintérêt profond de la politique active, bien qu'il participe au comité de parrainage du journal d'extrême droite Militant au cours des années 1980. Il s'intéresse aux religions pour en pointer le folklore, souvent sous forme de pastiche. Il a ensuite participé au Groupement de recherche et d'études pour la civilisation européenne (GRECE) et figuré au comité de patronage de Nouvelle École, la revue éditée par cette association.
+Le Dictionnaire des écrivains de langue française (Larousse, 2001) le qualifie d'« écrivain ironique, qui se tient à l'écart » et commente :
+« Quant à ses prises de position “fascistes”, il faut y voir le goût de la provocation chez un homme à qui répugnaient la bonne conscience et les idées reçues, fussent-elles “démocratiques”. »
+En mars 1976, Gripari déclare néanmoins avec le plus parfait sérieux au National, organe nationaliste-révolutionnaire du Front national créé par François Duprat en septembre 1974 :
+« De toute manière, le Fascisme n'a pas eu sa chance, il a été vaincu par une coalition de gens qui n'étaient même pas d'accord entre eux, qui se sont entendus uniquement sur son dos. Cette formule mériterait d'être reprise et honnêtement essayée. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pierre_Gripari</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gripari</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Style et thèmes de prédilection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gripari a exploré à peu près tous les genres. Excellent connaisseur des patrimoines littéraires nationaux, il sait aussi mettre à profit les mythes et le folklore populaire, sans dédaigner les récits fantastiques et la science-fiction. Il est ainsi parvenu à créer tout un univers. « Les seules histoires qui m'intéressent, écrit-il dans L'Arrière-monde, sont celles dont je suis sûr, dès le début, qu'elles ne sont jamais arrivées, qu'elles n'arriveront jamais, qu'elles ne peuvent arriver. » On lui doit aussi bien des romans que des nouvelles, des poèmes, des récits, des contes, des pièces de théâtre et des critiques littéraires.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gripari a exploré à peu près tous les genres. Excellent connaisseur des patrimoines littéraires nationaux, il sait aussi mettre à profit les mythes et le folklore populaire, sans dédaigner les récits fantastiques et la science-fiction. Il est ainsi parvenu à créer tout un univers. « Les seules histoires qui m'intéressent, écrit-il dans L'Arrière-monde, sont celles dont je suis sûr, dès le début, qu'elles ne sont jamais arrivées, qu'elles n'arriveront jamais, qu'elles ne peuvent arriver. » On lui doit aussi bien des romans que des nouvelles, des poèmes, des récits, des contes, des pièces de théâtre et des critiques littéraires.
 Son œuvre littéraire est marquée par l'érudition, la citation et l'exercice de style. Il s'essaie à des genres variés : roman épistolaire (Frère gaucher ou Le Voyage en Chine), roman de chevalerie (Le Conte de Paris), science-fiction (Vies parallèles de Roman Branchu)...
-Thèmes
-Parmi les thèmes récurrents de ses ouvrages figurent :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pierre_Gripari</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gripari</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Style et thèmes de prédilection</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Thèmes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les thèmes récurrents de ses ouvrages figurent :
 l'histoire du XXe siècle ;
 le refus des prétentions totalitaires ;
 l'Europe comme patrie spirituelle ;
 l'homosexualité ;
-la critique des monothéismes, notamment la religion juive, qu'il jugeait totalitaire et raciste. De fait, certains comme Pierre-André Taguieff, qui le qualifie d'« anarchiste d'extrême droite » et lui attribue une « filiation célinienne[14] », considèrent cet antijudaïsme comme antisémite.
-D'autres, comme son éditeur Vladimir Dimitrijević, contestent qu'il ait été antisémite et considèrent ses attaques contre le judaïsme, dans certains de ses articles de presse et romans, comme une critique respectable de la religion juive[15].
-Écrivain pour enfants
-Pierre Gripari est surtout connu du public comme un écrivain pour enfants. Son œuvre la plus célèbre, les Contes de la rue Broca, paraît en 1967. Elle comprend plusieurs histoires mettant en scène le merveilleux, dans le cadre familier d'un quartier du Paris contemporain. Certains personnages sont des enfants d'immigrés.
+la critique des monothéismes, notamment la religion juive, qu'il jugeait totalitaire et raciste. De fait, certains comme Pierre-André Taguieff, qui le qualifie d'« anarchiste d'extrême droite » et lui attribue une « filiation célinienne », considèrent cet antijudaïsme comme antisémite.
+D'autres, comme son éditeur Vladimir Dimitrijević, contestent qu'il ait été antisémite et considèrent ses attaques contre le judaïsme, dans certains de ses articles de presse et romans, comme une critique respectable de la religion juive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pierre_Gripari</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gripari</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Style et thèmes de prédilection</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Écrivain pour enfants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Gripari est surtout connu du public comme un écrivain pour enfants. Son œuvre la plus célèbre, les Contes de la rue Broca, paraît en 1967. Elle comprend plusieurs histoires mettant en scène le merveilleux, dans le cadre familier d'un quartier du Paris contemporain. Certains personnages sont des enfants d'immigrés.
 Les premières éditions des Contes, aux Éditions de la Table ronde, passent inaperçues, mais leur réédition par Gallimard apporte à Gripari succès et célébrité. À la fin des années 1970, les illustrateurs Fernando Puig Rosado et Claude Lapointe contribuent à populariser ces contes.
 Ce recueil est traduit notamment en Allemagne, au Brésil, en Bulgarie, en Grèce, en Hongrie, en Italie, au Japon, en Pologne et en Thaïlande.
-Prix
-1976 : prix Voltaire pour l'ensemble de son œuvre
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pierre_Gripari</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gripari</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Style et thèmes de prédilection</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1976 : prix Voltaire pour l'ensemble de son œuvre
 1982 : prix Pierre-de-Régnier de l’Académie française pour Moi, Mitounet-Joli
 1988 : prix de l'Académie française pour Contes cuistres</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Pierre_Gripari</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pierre_Gripari</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1962 : Lieutenant Tenant, théâtre, Éditions Arthème Fayard
 1963 : Pierrot la Lune, roman, Éditions La Table Ronde, 307 p.
 1964 : L’Incroyable Équipée de Phosphore Noloc racontée par un témoin oculaire avec quelques détails nouveaux sur les gouvernements des îles de Budu et de Pédonisse, roman, Éditions La Table Ronde, 273 p.
 1965 : Diable, Dieu et autres contes de menterie, nouvelles, Éditions La Table Ronde. Rééd. en Folio, 1980, 1988 Contient : La Chienne, L’ours, Diable, Dieu, Chronique du surhomme, Les enfants sur le crâne, Le fiancé, Le petit Jéhovah, Opération Pucelle, Kurt von Dupont, Le bélier, Midi.
-1967 : Contes de la rue Broca, contes, Éditions La Table Ronde, 214 p. Contient : La sorcière de la rue Mouffetard, Le géant aux chaussettes rouges, La paire de chaussures, Scoubidou, la poupée qui sait tout, Roman d’amour d’une patate, Histoire de Lustucru, La fée du robinet, Le gentil petit diable, La sorcière du placard aux balais, La maison de l’oncle Pierre, Le prince Blub et la sirène, Le petit cochon futé, Je-ne-sais-qui, je-ne-sais-quoi. - illustré par Claude Lapointe dans la version intégrale (Grasset, 2012)[16] ;
+1967 : Contes de la rue Broca, contes, Éditions La Table Ronde, 214 p. Contient : La sorcière de la rue Mouffetard, Le géant aux chaussettes rouges, La paire de chaussures, Scoubidou, la poupée qui sait tout, Roman d’amour d’une patate, Histoire de Lustucru, La fée du robinet, Le gentil petit diable, La sorcière du placard aux balais, La maison de l’oncle Pierre, Le prince Blub et la sirène, Le petit cochon futé, Je-ne-sais-qui, je-ne-sais-quoi. - illustré par Claude Lapointe dans la version intégrale (Grasset, 2012) ;
 1968 : La vie, la mort et la résurrection de Socrate-Marie Gripotard, roman, Éditions La Table Ronde, 310 p.
 1972 : L’Arrière-monde et autres diableries, nouvelles, Éditions Robert Morel éd., 246 p. Rééd. en 1973 aux Éditions Gérard en Belgique, Marabout S.F., no 455. Rééd. en 1980 aux Éditions l’Âge d’Homme, collection Poche-Suisse Contient : Ma maison, La suerie, Le cauchemar, La robote au grand cœur, L’époux céleste, Mon auteur, La planète bleue, Qui êtes-vous, Père Noël ? Vie et naissance de Pop, Vénus maritima, L’assassin de Monsieur Bidel, La méprise, Un témoin à décharge, Cette année-là, Dieu fut.
 1973 : Gueule d’Aminche, roman, Éditions Robert Morel éd., 214 p.
@@ -655,7 +884,7 @@
 1988 : Marelles, poèmes pour enfants, Éditions De Fallois/L’Âge d’Homme, illustrations de Laurent Cocchi, 111 p. Rééd. 1988. Rééd. Grasset-Jeunesse, 1996, illustrations de Chica Contient : Il était un petit navire, La Joie de Lire, Genève, illustrations de vingt-et-un graphistes (choix de poèmes du recueil).
 1989 : Notes d’une hirondelle, recueil de chroniques théâtrales, Éditions L’Âge d’Homme, 235 p.
 1989 : Huit farces pour collégiens, Éditions Grasset-Jeunesse, illustrations de Boiry, 218 p. Contient : Le bourricot, La Sorcière de la rue Mouffetard, L’Ange, Le Géant aux chaussettes rouges, Le démarcheur, La fée du robinet, Pour l’annonce, La sorcière du placard aux balais.
-1990 : Contes d’ailleurs et d’autre part, contes, coll. Grands lecteurs, Éditions Grasset-Jeunesse, 177 p. Rééd. 1993, album Grasset-Jeunesse, illustrations de Claude Lapointe[17]. Rééd. 1997, coll. Lampe de Poche, Grasset-Jeunesse, illustrations de Cecco Mariniello, Petite Sœur Contient : Mademoiselle Scarabée, Madame La terre-est-basse, Le diable aux cheveux blancs, Histoire du bagada, Le voyage de Saint-Déodat, Petite sœur, L’eau qui rend invisible, Sadko (histoire russe).
+1990 : Contes d’ailleurs et d’autre part, contes, coll. Grands lecteurs, Éditions Grasset-Jeunesse, 177 p. Rééd. 1993, album Grasset-Jeunesse, illustrations de Claude Lapointe. Rééd. 1997, coll. Lampe de Poche, Grasset-Jeunesse, illustrations de Cecco Mariniello, Petite Sœur Contient : Mademoiselle Scarabée, Madame La terre-est-basse, Le diable aux cheveux blancs, Histoire du bagada, Le voyage de Saint-Déodat, Petite sœur, L’eau qui rend invisible, Sadko (histoire russe).
 1990 : Les derniers jours de l’Éternel, roman, L’Âge d’Homme, 171 p.
 1990 : Le Musée des apocryphes, nouvelles, Éditions L’Âge d’Homme, 192 p. Contient : Lettre anonyme à Balzac, Cinq lettres, Lettre anonyme au Docteur Destouches, Au tribunal, La voyante, Conte arabe, La passion de John Bow, Notre agent à Tanis, Une révélation au Théâtre français, Psaumes de Saül, Carnets de Salomé, Le roman de Perrault, Confession d’un éditeur, L’histoire de Jennifer Brown, Le dernier jour du monde, Les dernières aventures de Passepartout.
 1990 : L’Affaire du petit pot de beurre, in Contes de la Table ronde, plaquette hors-commerce, Éditions La Table ronde, 30 p.
